--- a/Grupo_L-ejb/Datos alumnadoFAKE.xlsx
+++ b/Grupo_L-ejb/Datos alumnadoFAKE.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t xml:space="preserve">Curso Académico:</t>
   </si>
@@ -121,49 +121,49 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">57400152B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carmelita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enríquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navarro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10400001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06104200001@uma.es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarmelitaEnriquezNavarro@gustr.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">795 115 697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventanilla de Beas 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ourol</t>
+    <t xml:space="preserve">TITULACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57400152D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104100003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javi@uma.es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javierganto@dayrep.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reisedor 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alhaurin</t>
   </si>
   <si>
     <t xml:space="preserve">MÁLAGA</t>
   </si>
   <si>
-    <t xml:space="preserve">27865</t>
+    <t xml:space="preserve">46132</t>
   </si>
   <si>
     <t xml:space="preserve">22/09/2020 15:06</t>
   </si>
   <si>
-    <t xml:space="preserve">Mañana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207-,208-,306-,402-,403-,404-,405-,803-</t>
+    <t xml:space="preserve">Tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50658,40658</t>
   </si>
   <si>
     <t xml:space="preserve">6.32</t>
@@ -184,6 +184,9 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">1042</t>
+  </si>
+  <si>
     <t xml:space="preserve">57400152A</t>
   </si>
   <si>
@@ -196,10 +199,10 @@
     <t xml:space="preserve">Pabon</t>
   </si>
   <si>
-    <t xml:space="preserve">104100002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06104100002@uma.es</t>
+    <t xml:space="preserve">104100222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gregorina@uma.es</t>
   </si>
   <si>
     <t xml:space="preserve">GregorinaGomezPabon@fleckens.hu</t>
@@ -229,6 +232,9 @@
     <t xml:space="preserve">24</t>
   </si>
   <si>
+    <t xml:space="preserve">1041</t>
+  </si>
+  <si>
     <t xml:space="preserve">57400152C</t>
   </si>
   <si>
@@ -241,10 +247,10 @@
     <t xml:space="preserve">Melgar</t>
   </si>
   <si>
-    <t xml:space="preserve">105600003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06105600003@uma.es</t>
+    <t xml:space="preserve">105600333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amarilia@uma.es</t>
   </si>
   <si>
     <t xml:space="preserve">AmariliaEspinoMelgar@jourrapide.com</t>
@@ -278,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1056</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -330,7 +339,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -347,6 +363,13 @@
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -435,7 +458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,6 +503,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,6 +516,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:AA1513"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA7" activeCellId="0" sqref="AA7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,7 +598,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="52.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="35.01"/>
@@ -573,7 +608,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -676,42 +713,45 @@
       <c r="Y4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>306000001</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>306000005</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="1" t="n">
+        <v>664184557</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>640551484</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -720,7 +760,7 @@
       <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>43</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -756,175 +796,190 @@
       <c r="Y5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" s="12" t="n">
-        <v>1</v>
+      <c r="Z5" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>306000002</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="10" t="n">
-        <v>2</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>306000003</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="13"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="C7" s="15"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>306000022</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>306000033</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
